--- a/biology/Zoologie/Chevalier_lancier/Chevalier_lancier.xlsx
+++ b/biology/Zoologie/Chevalier_lancier/Chevalier_lancier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Equetus lanceolatus
 Le Chevalier lancier (Equetus lanceolatus) est une espèce de poisson des mers chaudes de la famille des Sciaenidae  vivant à proximité du corail .
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il mesure environ 25 cm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il mesure environ 25 cm.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve sur les côtes du Golfe du Mexique, dans l'Atlantique ouest[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve sur les côtes du Golfe du Mexique, dans l'Atlantique ouest.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Synonymes latins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ce taxon admet les synonymes latins suivants[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ce taxon admet les synonymes latins suivants :
 Chaetodon lanceolatus Linnaeus, 1758
 Eques americanus Bloch, 1793
 Eques balteatus Cuvier, 1829</t>
